--- a/GameDataFiles/BaseType_temp.xlsx
+++ b/GameDataFiles/BaseType_temp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,10 @@
   </si>
   <si>
     <t>999.0000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -695,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18">
